--- a/ApolloQA/Data/RatingManual/SC/VA00062.ClassCode_VehicleAgeFactors.xlsx
+++ b/ApolloQA/Data/RatingManual/SC/VA00062.ClassCode_VehicleAgeFactors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00062.ClassCode_VehicleAgeFactors" sheetId="1" r:id="R2a1fa2c5e43e48d3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00062.ClassCode_VehicleAgeFactors" sheetId="1" r:id="R7a958929c9a9422f"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -799,6 +799,20 @@
         <x:v>805</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9892</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>805</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>24</x:v>
       </x:c>
       <x:c t="str">
@@ -1569,6 +1583,20 @@
         <x:v>808</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9262</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>808</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>16</x:v>
       </x:c>
       <x:c t="str">
@@ -2339,6 +2367,20 @@
         <x:v>812</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0013</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>812</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>8</x:v>
       </x:c>
       <x:c t="str">
@@ -3106,6 +3148,20 @@
     </x:row>
     <x:row>
       <x:c t="str">
+        <x:v>816</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0160</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
         <x:v>817</x:v>
       </x:c>
       <x:c t="str">
@@ -3879,6 +3935,20 @@
         <x:v>819</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9892</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>819</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>24</x:v>
       </x:c>
       <x:c t="str">
@@ -4649,6 +4719,20 @@
         <x:v>821</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0450</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>821</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>16</x:v>
       </x:c>
       <x:c t="str">
@@ -5419,6 +5503,20 @@
         <x:v>824</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>824</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>8</x:v>
       </x:c>
       <x:c t="str">
@@ -6186,6 +6284,20 @@
     </x:row>
     <x:row>
       <x:c t="str">
+        <x:v>828</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.1040</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
         <x:v>829</x:v>
       </x:c>
       <x:c t="str">
@@ -6959,6 +7071,20 @@
         <x:v>831</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9228</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>831</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>24</x:v>
       </x:c>
       <x:c t="str">
@@ -7729,6 +7855,20 @@
         <x:v>836</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0491</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>836</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>16</x:v>
       </x:c>
       <x:c t="str">
@@ -8499,6 +8639,20 @@
         <x:v>838</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>838</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>8</x:v>
       </x:c>
       <x:c t="str">
@@ -9266,6 +9420,20 @@
     </x:row>
     <x:row>
       <x:c t="str">
+        <x:v>843</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
         <x:v>847</x:v>
       </x:c>
       <x:c t="str">
@@ -10039,6 +10207,20 @@
         <x:v>848</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8891</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>848</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>24</x:v>
       </x:c>
       <x:c t="str">
@@ -10809,6 +10991,20 @@
         <x:v>850</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>850</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>16</x:v>
       </x:c>
       <x:c t="str">
@@ -11579,6 +11775,20 @@
         <x:v>852</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>852</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>8</x:v>
       </x:c>
       <x:c t="str">
@@ -12346,6 +12556,20 @@
     </x:row>
     <x:row>
       <x:c t="str">
+        <x:v>854</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0702</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
         <x:v>897</x:v>
       </x:c>
       <x:c t="str">
@@ -13109,6 +13333,20 @@
       </x:c>
       <x:c t="str">
         <x:v>22</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>899</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>23</x:v>
       </x:c>
       <x:c t="str">
         <x:v>1.0000</x:v>
